--- a/src/data/villor/bostad.xlsx
+++ b/src/data/villor/bostad.xlsx
@@ -5,7 +5,6 @@
   <sheets>
     <sheet name="48 mån" sheetId="1" r:id="rId1"/>
     <sheet name="Årshistorik" sheetId="2" r:id="rId2"/>
-    <sheet name="Pris | Rum" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -384,7 +383,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Bostadsrätter i Riket, de senaste 48 månaderna</v>
+        <v>Villor i Riket, de senaste 48 månaderna</v>
       </c>
     </row>
     <row r="2">
@@ -403,7 +402,7 @@
         <v>Månad</v>
       </c>
       <c r="B3" t="str">
-        <v>kr/kvm</v>
+        <v>K/T</v>
       </c>
       <c r="C3" t="str">
         <v>antal försäljningar</v>
@@ -414,10 +413,10 @@
         <v>aug -21</v>
       </c>
       <c r="B4">
-        <v>45774</v>
+        <v>1.46</v>
       </c>
       <c r="C4">
-        <v>10868</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="5">
@@ -425,10 +424,10 @@
         <v>sep -21</v>
       </c>
       <c r="B5">
-        <v>46228</v>
+        <v>1.45</v>
       </c>
       <c r="C5">
-        <v>13547</v>
+        <v>6423</v>
       </c>
     </row>
     <row r="6">
@@ -436,10 +435,10 @@
         <v>okt -21</v>
       </c>
       <c r="B6">
-        <v>46234</v>
+        <v>1.44</v>
       </c>
       <c r="C6">
-        <v>12358</v>
+        <v>5726</v>
       </c>
     </row>
     <row r="7">
@@ -447,10 +446,10 @@
         <v>nov -21</v>
       </c>
       <c r="B7">
-        <v>46155</v>
+        <v>1.44</v>
       </c>
       <c r="C7">
-        <v>11114</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="8">
@@ -458,10 +457,10 @@
         <v>dec -21</v>
       </c>
       <c r="B8">
-        <v>46633</v>
+        <v>1.44</v>
       </c>
       <c r="C8">
-        <v>7074</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="9">
@@ -469,10 +468,10 @@
         <v>jan -22</v>
       </c>
       <c r="B9">
-        <v>47482</v>
+        <v>1.46</v>
       </c>
       <c r="C9">
-        <v>9339</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="10">
@@ -480,10 +479,10 @@
         <v>feb -22</v>
       </c>
       <c r="B10">
-        <v>48243</v>
+        <v>1.48</v>
       </c>
       <c r="C10">
-        <v>10787</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="11">
@@ -491,10 +490,10 @@
         <v>mar -22</v>
       </c>
       <c r="B11">
-        <v>48431</v>
+        <v>1.49</v>
       </c>
       <c r="C11">
-        <v>12547</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="12">
@@ -502,10 +501,10 @@
         <v>apr -22</v>
       </c>
       <c r="B12">
-        <v>47791</v>
+        <v>1.49</v>
       </c>
       <c r="C12">
-        <v>10761</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="13">
@@ -513,10 +512,10 @@
         <v>maj -22</v>
       </c>
       <c r="B13">
-        <v>46502</v>
+        <v>1.48</v>
       </c>
       <c r="C13">
-        <v>10895</v>
+        <v>5943</v>
       </c>
     </row>
     <row r="14">
@@ -524,10 +523,10 @@
         <v>jun -22</v>
       </c>
       <c r="B14">
-        <v>44804</v>
+        <v>1.46</v>
       </c>
       <c r="C14">
-        <v>9373</v>
+        <v>6065</v>
       </c>
     </row>
     <row r="15">
@@ -535,10 +534,10 @@
         <v>jul -22</v>
       </c>
       <c r="B15">
-        <v>43775</v>
+        <v>1.44</v>
       </c>
       <c r="C15">
-        <v>5937</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="16">
@@ -546,10 +545,10 @@
         <v>aug -22</v>
       </c>
       <c r="B16">
-        <v>43265</v>
+        <v>1.41</v>
       </c>
       <c r="C16">
-        <v>8603</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="17">
@@ -557,10 +556,10 @@
         <v>sep -22</v>
       </c>
       <c r="B17">
-        <v>43401</v>
+        <v>1.38</v>
       </c>
       <c r="C17">
-        <v>9745</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="18">
@@ -568,10 +567,10 @@
         <v>okt -22</v>
       </c>
       <c r="B18">
-        <v>42864</v>
+        <v>1.33</v>
       </c>
       <c r="C18">
-        <v>8816</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="19">
@@ -579,10 +578,10 @@
         <v>nov -22</v>
       </c>
       <c r="B19">
-        <v>42297</v>
+        <v>1.29</v>
       </c>
       <c r="C19">
-        <v>8371</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="20">
@@ -590,10 +589,10 @@
         <v>dec -22</v>
       </c>
       <c r="B20">
-        <v>41896</v>
+        <v>1.28</v>
       </c>
       <c r="C20">
-        <v>5514</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="21">
@@ -601,10 +600,10 @@
         <v>jan -23</v>
       </c>
       <c r="B21">
-        <v>42167</v>
+        <v>1.28</v>
       </c>
       <c r="C21">
-        <v>6963</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="22">
@@ -612,10 +611,10 @@
         <v>feb -23</v>
       </c>
       <c r="B22">
-        <v>43026</v>
+        <v>1.29</v>
       </c>
       <c r="C22">
-        <v>8191</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="23">
@@ -623,10 +622,10 @@
         <v>mar -23</v>
       </c>
       <c r="B23">
-        <v>43583</v>
+        <v>1.29</v>
       </c>
       <c r="C23">
-        <v>9196</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="24">
@@ -634,10 +633,10 @@
         <v>apr -23</v>
       </c>
       <c r="B24">
-        <v>44043</v>
+        <v>1.3</v>
       </c>
       <c r="C24">
-        <v>7848</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="25">
@@ -645,10 +644,10 @@
         <v>maj -23</v>
       </c>
       <c r="B25">
-        <v>44119</v>
+        <v>1.31</v>
       </c>
       <c r="C25">
-        <v>8949</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="26">
@@ -656,10 +655,10 @@
         <v>jun -23</v>
       </c>
       <c r="B26">
-        <v>43866</v>
+        <v>1.31</v>
       </c>
       <c r="C26">
-        <v>8573</v>
+        <v>5292</v>
       </c>
     </row>
     <row r="27">
@@ -667,10 +666,10 @@
         <v>jul -23</v>
       </c>
       <c r="B27">
-        <v>43612</v>
+        <v>1.32</v>
       </c>
       <c r="C27">
-        <v>5677</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="28">
@@ -678,10 +677,10 @@
         <v>aug -23</v>
       </c>
       <c r="B28">
-        <v>43631</v>
+        <v>1.32</v>
       </c>
       <c r="C28">
-        <v>8247</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="29">
@@ -689,10 +688,10 @@
         <v>sep -23</v>
       </c>
       <c r="B29">
-        <v>43805</v>
+        <v>1.31</v>
       </c>
       <c r="C29">
-        <v>9220</v>
+        <v>5331</v>
       </c>
     </row>
     <row r="30">
@@ -700,10 +699,10 @@
         <v>okt -23</v>
       </c>
       <c r="B30">
-        <v>43502</v>
+        <v>1.29</v>
       </c>
       <c r="C30">
-        <v>8840</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="31">
@@ -711,10 +710,10 @@
         <v>nov -23</v>
       </c>
       <c r="B31">
-        <v>42986</v>
+        <v>1.27</v>
       </c>
       <c r="C31">
-        <v>7925</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="32">
@@ -722,10 +721,10 @@
         <v>dec -23</v>
       </c>
       <c r="B32">
-        <v>42686</v>
+        <v>1.27</v>
       </c>
       <c r="C32">
-        <v>5429</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="33">
@@ -733,10 +732,10 @@
         <v>jan -24</v>
       </c>
       <c r="B33">
-        <v>42859</v>
+        <v>1.3</v>
       </c>
       <c r="C33">
-        <v>7724</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="34">
@@ -744,10 +743,10 @@
         <v>feb -24</v>
       </c>
       <c r="B34">
-        <v>43666</v>
+        <v>1.32</v>
       </c>
       <c r="C34">
-        <v>9086</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="35">
@@ -755,10 +754,10 @@
         <v>mar -24</v>
       </c>
       <c r="B35">
-        <v>44327</v>
+        <v>1.33</v>
       </c>
       <c r="C35">
-        <v>9370</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="36">
@@ -766,10 +765,10 @@
         <v>apr -24</v>
       </c>
       <c r="B36">
-        <v>45053</v>
+        <v>1.35</v>
       </c>
       <c r="C36">
-        <v>9616</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="37">
@@ -777,10 +776,10 @@
         <v>maj -24</v>
       </c>
       <c r="B37">
-        <v>45184</v>
+        <v>1.36</v>
       </c>
       <c r="C37">
-        <v>10597</v>
+        <v>6005</v>
       </c>
     </row>
     <row r="38">
@@ -788,10 +787,10 @@
         <v>jun -24</v>
       </c>
       <c r="B38">
-        <v>44656</v>
+        <v>1.37</v>
       </c>
       <c r="C38">
-        <v>8061</v>
+        <v>5553</v>
       </c>
     </row>
     <row r="39">
@@ -799,10 +798,10 @@
         <v>jul -24</v>
       </c>
       <c r="B39">
-        <v>44396</v>
+        <v>1.38</v>
       </c>
       <c r="C39">
-        <v>6638</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="40">
@@ -810,10 +809,10 @@
         <v>aug -24</v>
       </c>
       <c r="B40">
-        <v>44936</v>
+        <v>1.37</v>
       </c>
       <c r="C40">
-        <v>8896</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="41">
@@ -821,10 +820,10 @@
         <v>sep -24</v>
       </c>
       <c r="B41">
-        <v>45867</v>
+        <v>1.36</v>
       </c>
       <c r="C41">
-        <v>10510</v>
+        <v>6071</v>
       </c>
     </row>
     <row r="42">
@@ -832,10 +831,10 @@
         <v>okt -24</v>
       </c>
       <c r="B42">
-        <v>46037</v>
+        <v>1.35</v>
       </c>
       <c r="C42">
-        <v>11155</v>
+        <v>6017</v>
       </c>
     </row>
     <row r="43">
@@ -843,10 +842,10 @@
         <v>nov -24</v>
       </c>
       <c r="B43">
-        <v>45581</v>
+        <v>1.33</v>
       </c>
       <c r="C43">
-        <v>9791</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="44">
@@ -854,10 +853,10 @@
         <v>dec -24</v>
       </c>
       <c r="B44">
-        <v>45223</v>
+        <v>1.33</v>
       </c>
       <c r="C44">
-        <v>6069</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="45">
@@ -865,10 +864,10 @@
         <v>jan -25</v>
       </c>
       <c r="B45">
-        <v>45018</v>
+        <v>1.34</v>
       </c>
       <c r="C45">
-        <v>8386</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="46">
@@ -876,10 +875,10 @@
         <v>feb -25</v>
       </c>
       <c r="B46">
-        <v>45511</v>
+        <v>1.34</v>
       </c>
       <c r="C46">
-        <v>9402</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="47">
@@ -887,10 +886,10 @@
         <v>mar -25</v>
       </c>
       <c r="B47">
-        <v>45558</v>
+        <v>1.35</v>
       </c>
       <c r="C47">
-        <v>9525</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="48">
@@ -898,10 +897,10 @@
         <v>apr -25</v>
       </c>
       <c r="B48">
-        <v>45573</v>
+        <v>1.35</v>
       </c>
       <c r="C48">
-        <v>9102</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="49">
@@ -909,10 +908,10 @@
         <v>maj -25</v>
       </c>
       <c r="B49">
-        <v>45286</v>
+        <v>1.36</v>
       </c>
       <c r="C49">
-        <v>9959</v>
+        <v>6441</v>
       </c>
     </row>
     <row r="50">
@@ -920,10 +919,10 @@
         <v>jun -25</v>
       </c>
       <c r="B50">
-        <v>44607</v>
+        <v>1.37</v>
       </c>
       <c r="C50">
-        <v>8617</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="51">
@@ -931,10 +930,10 @@
         <v>jul -25</v>
       </c>
       <c r="B51">
-        <v>43934</v>
+        <v>1.37</v>
       </c>
       <c r="C51">
-        <v>6528</v>
+        <v>4194</v>
       </c>
     </row>
   </sheetData>
@@ -953,7 +952,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Bostadsrätter i Riket, årshistorik</v>
+        <v>Villor i Riket, årshistorik</v>
       </c>
     </row>
     <row r="2">
@@ -972,7 +971,7 @@
         <v>År</v>
       </c>
       <c r="B3" t="str">
-        <v>kr/kvm</v>
+        <v>K/T</v>
       </c>
     </row>
     <row r="4">
@@ -980,7 +979,7 @@
         <v>1996</v>
       </c>
       <c r="B4">
-        <v>4997</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5">
@@ -988,7 +987,7 @@
         <v>1997</v>
       </c>
       <c r="B5">
-        <v>5896</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="6">
@@ -996,7 +995,7 @@
         <v>1998</v>
       </c>
       <c r="B6">
-        <v>6633</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7">
@@ -1004,7 +1003,7 @@
         <v>1999</v>
       </c>
       <c r="B7">
-        <v>7777</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="8">
@@ -1012,7 +1011,7 @@
         <v>2000</v>
       </c>
       <c r="B8">
-        <v>8314</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="9">
@@ -1020,7 +1019,7 @@
         <v>2001</v>
       </c>
       <c r="B9">
-        <v>9436</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="10">
@@ -1028,7 +1027,7 @@
         <v>2002</v>
       </c>
       <c r="B10">
-        <v>9818</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="11">
@@ -1036,7 +1035,7 @@
         <v>2003</v>
       </c>
       <c r="B11">
-        <v>10938</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="12">
@@ -1044,7 +1043,7 @@
         <v>2004</v>
       </c>
       <c r="B12">
-        <v>12421</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
@@ -1052,7 +1051,7 @@
         <v>2005</v>
       </c>
       <c r="B13">
-        <v>15288</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="14">
@@ -1060,7 +1059,7 @@
         <v>2006</v>
       </c>
       <c r="B14">
-        <v>18649</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="15">
@@ -1068,7 +1067,7 @@
         <v>2007</v>
       </c>
       <c r="B15">
-        <v>20631</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="16">
@@ -1076,7 +1075,7 @@
         <v>2008</v>
       </c>
       <c r="B16">
-        <v>19536</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="17">
@@ -1084,7 +1083,7 @@
         <v>2009</v>
       </c>
       <c r="B17">
-        <v>20712</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="18">
@@ -1092,7 +1091,7 @@
         <v>2010</v>
       </c>
       <c r="B18">
-        <v>22794</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1099,7 @@
         <v>2011</v>
       </c>
       <c r="B19">
-        <v>23145</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="20">
@@ -1108,7 +1107,7 @@
         <v>2012</v>
       </c>
       <c r="B20">
-        <v>24351</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="21">
@@ -1116,7 +1115,7 @@
         <v>2013</v>
       </c>
       <c r="B21">
-        <v>27115</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="22">
@@ -1124,7 +1123,7 @@
         <v>2014</v>
       </c>
       <c r="B22">
-        <v>29999</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="23">
@@ -1132,7 +1131,7 @@
         <v>2015</v>
       </c>
       <c r="B23">
-        <v>34646</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="24">
@@ -1140,7 +1139,7 @@
         <v>2016</v>
       </c>
       <c r="B24">
-        <v>37783</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1148,7 +1147,7 @@
         <v>2017</v>
       </c>
       <c r="B25">
-        <v>39088</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="26">
@@ -1156,7 +1155,7 @@
         <v>2018</v>
       </c>
       <c r="B26">
-        <v>36925</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="27">
@@ -1164,7 +1163,7 @@
         <v>2019</v>
       </c>
       <c r="B27">
-        <v>38271</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="28">
@@ -1172,7 +1171,7 @@
         <v>2020</v>
       </c>
       <c r="B28">
-        <v>40892</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="29">
@@ -1180,7 +1179,7 @@
         <v>2021</v>
       </c>
       <c r="B29">
-        <v>44550</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="30">
@@ -1188,7 +1187,7 @@
         <v>2022</v>
       </c>
       <c r="B30">
-        <v>44323</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="31">
@@ -1196,7 +1195,7 @@
         <v>2023</v>
       </c>
       <c r="B31">
-        <v>42812</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="32">
@@ -1204,7 +1203,7 @@
         <v>2024</v>
       </c>
       <c r="B32">
-        <v>44413</v>
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>
@@ -1212,867 +1211,4 @@
     <ignoredError numberStoredAsText="1" sqref="A1:C32"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Bostadsrätter Lägenhetsstorlek i Riket, de senaste 48 månaderna</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Månad</v>
-      </c>
-      <c r="B3" t="str">
-        <v>1:or</v>
-      </c>
-      <c r="C3" t="str">
-        <v>2:or</v>
-      </c>
-      <c r="D3" t="str">
-        <v>3:or</v>
-      </c>
-      <c r="E3" t="str">
-        <v>4:or+</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>aug -21</v>
-      </c>
-      <c r="B4">
-        <v>56294</v>
-      </c>
-      <c r="C4">
-        <v>46148</v>
-      </c>
-      <c r="D4">
-        <v>41896</v>
-      </c>
-      <c r="E4">
-        <v>40658</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>sep -21</v>
-      </c>
-      <c r="B5">
-        <v>55390</v>
-      </c>
-      <c r="C5">
-        <v>46768</v>
-      </c>
-      <c r="D5">
-        <v>42991</v>
-      </c>
-      <c r="E5">
-        <v>42027</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>okt -21</v>
-      </c>
-      <c r="B6">
-        <v>53832</v>
-      </c>
-      <c r="C6">
-        <v>46893</v>
-      </c>
-      <c r="D6">
-        <v>43735</v>
-      </c>
-      <c r="E6">
-        <v>42528</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>nov -21</v>
-      </c>
-      <c r="B7">
-        <v>53985</v>
-      </c>
-      <c r="C7">
-        <v>46643</v>
-      </c>
-      <c r="D7">
-        <v>43673</v>
-      </c>
-      <c r="E7">
-        <v>42321</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>dec -21</v>
-      </c>
-      <c r="B8">
-        <v>55784</v>
-      </c>
-      <c r="C8">
-        <v>46996</v>
-      </c>
-      <c r="D8">
-        <v>43664</v>
-      </c>
-      <c r="E8">
-        <v>41895</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>jan -22</v>
-      </c>
-      <c r="B9">
-        <v>56558</v>
-      </c>
-      <c r="C9">
-        <v>47887</v>
-      </c>
-      <c r="D9">
-        <v>44040</v>
-      </c>
-      <c r="E9">
-        <v>43351</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>feb -22</v>
-      </c>
-      <c r="B10">
-        <v>56882</v>
-      </c>
-      <c r="C10">
-        <v>48665</v>
-      </c>
-      <c r="D10">
-        <v>45013</v>
-      </c>
-      <c r="E10">
-        <v>44645</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>mar -22</v>
-      </c>
-      <c r="B11">
-        <v>56252</v>
-      </c>
-      <c r="C11">
-        <v>48897</v>
-      </c>
-      <c r="D11">
-        <v>45724</v>
-      </c>
-      <c r="E11">
-        <v>44911</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>apr -22</v>
-      </c>
-      <c r="B12">
-        <v>55731</v>
-      </c>
-      <c r="C12">
-        <v>48426</v>
-      </c>
-      <c r="D12">
-        <v>45338</v>
-      </c>
-      <c r="E12">
-        <v>44024</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>maj -22</v>
-      </c>
-      <c r="B13">
-        <v>55125</v>
-      </c>
-      <c r="C13">
-        <v>47132</v>
-      </c>
-      <c r="D13">
-        <v>43995</v>
-      </c>
-      <c r="E13">
-        <v>42661</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>jun -22</v>
-      </c>
-      <c r="B14">
-        <v>53913</v>
-      </c>
-      <c r="C14">
-        <v>45394</v>
-      </c>
-      <c r="D14">
-        <v>41842</v>
-      </c>
-      <c r="E14">
-        <v>41127</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>jul -22</v>
-      </c>
-      <c r="B15">
-        <v>53550</v>
-      </c>
-      <c r="C15">
-        <v>43716</v>
-      </c>
-      <c r="D15">
-        <v>40293</v>
-      </c>
-      <c r="E15">
-        <v>40155</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>aug -22</v>
-      </c>
-      <c r="B16">
-        <v>52449</v>
-      </c>
-      <c r="C16">
-        <v>43417</v>
-      </c>
-      <c r="D16">
-        <v>39531</v>
-      </c>
-      <c r="E16">
-        <v>39734</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>sep -22</v>
-      </c>
-      <c r="B17">
-        <v>51732</v>
-      </c>
-      <c r="C17">
-        <v>43527</v>
-      </c>
-      <c r="D17">
-        <v>40163</v>
-      </c>
-      <c r="E17">
-        <v>40637</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>okt -22</v>
-      </c>
-      <c r="B18">
-        <v>50171</v>
-      </c>
-      <c r="C18">
-        <v>43293</v>
-      </c>
-      <c r="D18">
-        <v>39851</v>
-      </c>
-      <c r="E18">
-        <v>40691</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>nov -22</v>
-      </c>
-      <c r="B19">
-        <v>49692</v>
-      </c>
-      <c r="C19">
-        <v>42454</v>
-      </c>
-      <c r="D19">
-        <v>39356</v>
-      </c>
-      <c r="E19">
-        <v>40345</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>dec -22</v>
-      </c>
-      <c r="B20">
-        <v>49336</v>
-      </c>
-      <c r="C20">
-        <v>42202</v>
-      </c>
-      <c r="D20">
-        <v>38765</v>
-      </c>
-      <c r="E20">
-        <v>39252</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>jan -23</v>
-      </c>
-      <c r="B21">
-        <v>49332</v>
-      </c>
-      <c r="C21">
-        <v>42748</v>
-      </c>
-      <c r="D21">
-        <v>39020</v>
-      </c>
-      <c r="E21">
-        <v>38971</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>feb -23</v>
-      </c>
-      <c r="B22">
-        <v>49948</v>
-      </c>
-      <c r="C22">
-        <v>43804</v>
-      </c>
-      <c r="D22">
-        <v>40038</v>
-      </c>
-      <c r="E22">
-        <v>39524</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>mar -23</v>
-      </c>
-      <c r="B23">
-        <v>50665</v>
-      </c>
-      <c r="C23">
-        <v>44346</v>
-      </c>
-      <c r="D23">
-        <v>40858</v>
-      </c>
-      <c r="E23">
-        <v>40224</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>apr -23</v>
-      </c>
-      <c r="B24">
-        <v>51958</v>
-      </c>
-      <c r="C24">
-        <v>44523</v>
-      </c>
-      <c r="D24">
-        <v>41438</v>
-      </c>
-      <c r="E24">
-        <v>40529</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>maj -23</v>
-      </c>
-      <c r="B25">
-        <v>52241</v>
-      </c>
-      <c r="C25">
-        <v>44421</v>
-      </c>
-      <c r="D25">
-        <v>41637</v>
-      </c>
-      <c r="E25">
-        <v>40673</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>jun -23</v>
-      </c>
-      <c r="B26">
-        <v>52955</v>
-      </c>
-      <c r="C26">
-        <v>44007</v>
-      </c>
-      <c r="D26">
-        <v>40990</v>
-      </c>
-      <c r="E26">
-        <v>40164</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>jul -23</v>
-      </c>
-      <c r="B27">
-        <v>53581</v>
-      </c>
-      <c r="C27">
-        <v>43844</v>
-      </c>
-      <c r="D27">
-        <v>40295</v>
-      </c>
-      <c r="E27">
-        <v>39120</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>aug -23</v>
-      </c>
-      <c r="B28">
-        <v>53355</v>
-      </c>
-      <c r="C28">
-        <v>44015</v>
-      </c>
-      <c r="D28">
-        <v>40477</v>
-      </c>
-      <c r="E28">
-        <v>39311</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>sep -23</v>
-      </c>
-      <c r="B29">
-        <v>52058</v>
-      </c>
-      <c r="C29">
-        <v>44275</v>
-      </c>
-      <c r="D29">
-        <v>41202</v>
-      </c>
-      <c r="E29">
-        <v>40267</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>okt -23</v>
-      </c>
-      <c r="B30">
-        <v>50078</v>
-      </c>
-      <c r="C30">
-        <v>43920</v>
-      </c>
-      <c r="D30">
-        <v>41395</v>
-      </c>
-      <c r="E30">
-        <v>40977</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>nov -23</v>
-      </c>
-      <c r="B31">
-        <v>49328</v>
-      </c>
-      <c r="C31">
-        <v>43303</v>
-      </c>
-      <c r="D31">
-        <v>40704</v>
-      </c>
-      <c r="E31">
-        <v>40839</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>dec -23</v>
-      </c>
-      <c r="B32">
-        <v>49751</v>
-      </c>
-      <c r="C32">
-        <v>43056</v>
-      </c>
-      <c r="D32">
-        <v>39999</v>
-      </c>
-      <c r="E32">
-        <v>40164</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>jan -24</v>
-      </c>
-      <c r="B33">
-        <v>50141</v>
-      </c>
-      <c r="C33">
-        <v>43361</v>
-      </c>
-      <c r="D33">
-        <v>40157</v>
-      </c>
-      <c r="E33">
-        <v>39831</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>feb -24</v>
-      </c>
-      <c r="B34">
-        <v>51248</v>
-      </c>
-      <c r="C34">
-        <v>44207</v>
-      </c>
-      <c r="D34">
-        <v>41092</v>
-      </c>
-      <c r="E34">
-        <v>40231</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>mar -24</v>
-      </c>
-      <c r="B35">
-        <v>52184</v>
-      </c>
-      <c r="C35">
-        <v>44996</v>
-      </c>
-      <c r="D35">
-        <v>41905</v>
-      </c>
-      <c r="E35">
-        <v>40453</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>apr -24</v>
-      </c>
-      <c r="B36">
-        <v>53240</v>
-      </c>
-      <c r="C36">
-        <v>45867</v>
-      </c>
-      <c r="D36">
-        <v>42578</v>
-      </c>
-      <c r="E36">
-        <v>41047</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>maj -24</v>
-      </c>
-      <c r="B37">
-        <v>53489</v>
-      </c>
-      <c r="C37">
-        <v>46096</v>
-      </c>
-      <c r="D37">
-        <v>42654</v>
-      </c>
-      <c r="E37">
-        <v>41157</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>jun -24</v>
-      </c>
-      <c r="B38">
-        <v>53389</v>
-      </c>
-      <c r="C38">
-        <v>45326</v>
-      </c>
-      <c r="D38">
-        <v>41801</v>
-      </c>
-      <c r="E38">
-        <v>40823</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>jul -24</v>
-      </c>
-      <c r="B39">
-        <v>54169</v>
-      </c>
-      <c r="C39">
-        <v>44593</v>
-      </c>
-      <c r="D39">
-        <v>41049</v>
-      </c>
-      <c r="E39">
-        <v>40256</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>aug -24</v>
-      </c>
-      <c r="B40">
-        <v>54634</v>
-      </c>
-      <c r="C40">
-        <v>45162</v>
-      </c>
-      <c r="D40">
-        <v>41771</v>
-      </c>
-      <c r="E40">
-        <v>40738</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>sep -24</v>
-      </c>
-      <c r="B41">
-        <v>55372</v>
-      </c>
-      <c r="C41">
-        <v>46208</v>
-      </c>
-      <c r="D41">
-        <v>42995</v>
-      </c>
-      <c r="E41">
-        <v>41724</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>okt -24</v>
-      </c>
-      <c r="B42">
-        <v>54198</v>
-      </c>
-      <c r="C42">
-        <v>46592</v>
-      </c>
-      <c r="D42">
-        <v>43373</v>
-      </c>
-      <c r="E42">
-        <v>42607</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>nov -24</v>
-      </c>
-      <c r="B43">
-        <v>53249</v>
-      </c>
-      <c r="C43">
-        <v>46044</v>
-      </c>
-      <c r="D43">
-        <v>42939</v>
-      </c>
-      <c r="E43">
-        <v>42496</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>dec -24</v>
-      </c>
-      <c r="B44">
-        <v>52304</v>
-      </c>
-      <c r="C44">
-        <v>46097</v>
-      </c>
-      <c r="D44">
-        <v>42515</v>
-      </c>
-      <c r="E44">
-        <v>42046</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>jan -25</v>
-      </c>
-      <c r="B45">
-        <v>52244</v>
-      </c>
-      <c r="C45">
-        <v>45980</v>
-      </c>
-      <c r="D45">
-        <v>42585</v>
-      </c>
-      <c r="E45">
-        <v>41319</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>feb -25</v>
-      </c>
-      <c r="B46">
-        <v>53019</v>
-      </c>
-      <c r="C46">
-        <v>46523</v>
-      </c>
-      <c r="D46">
-        <v>43101</v>
-      </c>
-      <c r="E46">
-        <v>41592</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>mar -25</v>
-      </c>
-      <c r="B47">
-        <v>52991</v>
-      </c>
-      <c r="C47">
-        <v>46484</v>
-      </c>
-      <c r="D47">
-        <v>43373</v>
-      </c>
-      <c r="E47">
-        <v>41588</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>apr -25</v>
-      </c>
-      <c r="B48">
-        <v>53596</v>
-      </c>
-      <c r="C48">
-        <v>46439</v>
-      </c>
-      <c r="D48">
-        <v>43329</v>
-      </c>
-      <c r="E48">
-        <v>41594</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>maj -25</v>
-      </c>
-      <c r="B49">
-        <v>53604</v>
-      </c>
-      <c r="C49">
-        <v>46005</v>
-      </c>
-      <c r="D49">
-        <v>43098</v>
-      </c>
-      <c r="E49">
-        <v>41201</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>jun -25</v>
-      </c>
-      <c r="B50">
-        <v>53669</v>
-      </c>
-      <c r="C50">
-        <v>45194</v>
-      </c>
-      <c r="D50">
-        <v>41818</v>
-      </c>
-      <c r="E50">
-        <v>40495</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>jul -25</v>
-      </c>
-      <c r="B51">
-        <v>53226</v>
-      </c>
-      <c r="C51">
-        <v>44466</v>
-      </c>
-      <c r="D51">
-        <v>40724</v>
-      </c>
-      <c r="E51">
-        <v>39419</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E51"/>
-  </ignoredErrors>
-</worksheet>
 </file>